--- a/projects/P1 -  Excel Grading/Well_Organized_Data_2.xlsx
+++ b/projects/P1 -  Excel Grading/Well_Organized_Data_2.xlsx
@@ -474,6 +474,10 @@
           <t>Highest Grade</t>
         </is>
       </c>
+      <c r="G2">
+        <f>MAX(OFFSET($D$2,0,0,COUNT($D:$D)-1,1))</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="F3" t="inlineStr">
@@ -481,6 +485,10 @@
           <t>Lowest Grade</t>
         </is>
       </c>
+      <c r="G3">
+        <f>MIN(OFFSET($D$2,0,0,COUNT($D:$D)-1,1))</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="F4" t="inlineStr">
@@ -488,6 +496,10 @@
           <t>Mean Grade</t>
         </is>
       </c>
+      <c r="G4">
+        <f>IF(G6=0,0,AVERAGE(OFFSET($D$2,0,0,COUNT($D:$D)-1,1)))</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="F5" t="inlineStr">
@@ -495,12 +507,20 @@
           <t>Median Grade</t>
         </is>
       </c>
+      <c r="G5">
+        <f>IF(G6=0,0,MEDIAN(OFFSET($D$2,0,0,COUNT($D:$D)-1,1)))</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="F6" t="inlineStr">
         <is>
           <t>Number of Students</t>
         </is>
+      </c>
+      <c r="G6">
+        <f>COUNT(OFFSET($D$2,0,0,COUNT($D:$D)-1,1))</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -568,6 +588,10 @@
           <t>Highest Grade</t>
         </is>
       </c>
+      <c r="G2">
+        <f>MAX(OFFSET($D$2,0,0,COUNT($D:$D)-1,1))</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="F3" t="inlineStr">
@@ -575,6 +599,10 @@
           <t>Lowest Grade</t>
         </is>
       </c>
+      <c r="G3">
+        <f>MIN(OFFSET($D$2,0,0,COUNT($D:$D)-1,1))</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="F4" t="inlineStr">
@@ -582,6 +610,10 @@
           <t>Mean Grade</t>
         </is>
       </c>
+      <c r="G4">
+        <f>IF(G6=0,0,AVERAGE(OFFSET($D$2,0,0,COUNT($D:$D)-1,1)))</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="F5" t="inlineStr">
@@ -589,12 +621,20 @@
           <t>Median Grade</t>
         </is>
       </c>
+      <c r="G5">
+        <f>IF(G6=0,0,MEDIAN(OFFSET($D$2,0,0,COUNT($D:$D)-1,1)))</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="F6" t="inlineStr">
         <is>
           <t>Number of Students</t>
         </is>
+      </c>
+      <c r="G6">
+        <f>COUNT(OFFSET($D$2,0,0,COUNT($D:$D)-1,1))</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -662,6 +702,10 @@
           <t>Highest Grade</t>
         </is>
       </c>
+      <c r="G2">
+        <f>MAX(OFFSET($D$2,0,0,COUNT($D:$D)-1,1))</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="F3" t="inlineStr">
@@ -669,6 +713,10 @@
           <t>Lowest Grade</t>
         </is>
       </c>
+      <c r="G3">
+        <f>MIN(OFFSET($D$2,0,0,COUNT($D:$D)-1,1))</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="F4" t="inlineStr">
@@ -676,6 +724,10 @@
           <t>Mean Grade</t>
         </is>
       </c>
+      <c r="G4">
+        <f>IF(G6=0,0,AVERAGE(OFFSET($D$2,0,0,COUNT($D:$D)-1,1)))</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="F5" t="inlineStr">
@@ -683,12 +735,20 @@
           <t>Median Grade</t>
         </is>
       </c>
+      <c r="G5">
+        <f>IF(G6=0,0,MEDIAN(OFFSET($D$2,0,0,COUNT($D:$D)-1,1)))</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="F6" t="inlineStr">
         <is>
           <t>Number of Students</t>
         </is>
+      </c>
+      <c r="G6">
+        <f>COUNT(OFFSET($D$2,0,0,COUNT($D:$D)-1,1))</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -756,6 +816,10 @@
           <t>Highest Grade</t>
         </is>
       </c>
+      <c r="G2">
+        <f>MAX(OFFSET($D$2,0,0,COUNT($D:$D)-1,1))</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="F3" t="inlineStr">
@@ -763,6 +827,10 @@
           <t>Lowest Grade</t>
         </is>
       </c>
+      <c r="G3">
+        <f>MIN(OFFSET($D$2,0,0,COUNT($D:$D)-1,1))</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="F4" t="inlineStr">
@@ -770,6 +838,10 @@
           <t>Mean Grade</t>
         </is>
       </c>
+      <c r="G4">
+        <f>IF(G6=0,0,AVERAGE(OFFSET($D$2,0,0,COUNT($D:$D)-1,1)))</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="F5" t="inlineStr">
@@ -777,12 +849,20 @@
           <t>Median Grade</t>
         </is>
       </c>
+      <c r="G5">
+        <f>IF(G6=0,0,MEDIAN(OFFSET($D$2,0,0,COUNT($D:$D)-1,1)))</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="F6" t="inlineStr">
         <is>
           <t>Number of Students</t>
         </is>
+      </c>
+      <c r="G6">
+        <f>COUNT(OFFSET($D$2,0,0,COUNT($D:$D)-1,1))</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/projects/P1 -  Excel Grading/Well_Organized_Data_2.xlsx
+++ b/projects/P1 -  Excel Grading/Well_Organized_Data_2.xlsx
@@ -474,10 +474,6 @@
           <t>Highest Grade</t>
         </is>
       </c>
-      <c r="G2">
-        <f>MAX(OFFSET($D$2,0,0,COUNT($D:$D)-1,1))</f>
-        <v/>
-      </c>
     </row>
     <row r="3">
       <c r="F3" t="inlineStr">
@@ -485,10 +481,6 @@
           <t>Lowest Grade</t>
         </is>
       </c>
-      <c r="G3">
-        <f>MIN(OFFSET($D$2,0,0,COUNT($D:$D)-1,1))</f>
-        <v/>
-      </c>
     </row>
     <row r="4">
       <c r="F4" t="inlineStr">
@@ -496,10 +488,6 @@
           <t>Mean Grade</t>
         </is>
       </c>
-      <c r="G4">
-        <f>IF(G6=0,0,AVERAGE(OFFSET($D$2,0,0,COUNT($D:$D)-1,1)))</f>
-        <v/>
-      </c>
     </row>
     <row r="5">
       <c r="F5" t="inlineStr">
@@ -507,20 +495,12 @@
           <t>Median Grade</t>
         </is>
       </c>
-      <c r="G5">
-        <f>IF(G6=0,0,MEDIAN(OFFSET($D$2,0,0,COUNT($D:$D)-1,1)))</f>
-        <v/>
-      </c>
     </row>
     <row r="6">
       <c r="F6" t="inlineStr">
         <is>
           <t>Number of Students</t>
         </is>
-      </c>
-      <c r="G6">
-        <f>COUNT(OFFSET($D$2,0,0,COUNT($D:$D)-1,1))</f>
-        <v/>
       </c>
     </row>
   </sheetData>
@@ -588,10 +568,6 @@
           <t>Highest Grade</t>
         </is>
       </c>
-      <c r="G2">
-        <f>MAX(OFFSET($D$2,0,0,COUNT($D:$D)-1,1))</f>
-        <v/>
-      </c>
     </row>
     <row r="3">
       <c r="F3" t="inlineStr">
@@ -599,10 +575,6 @@
           <t>Lowest Grade</t>
         </is>
       </c>
-      <c r="G3">
-        <f>MIN(OFFSET($D$2,0,0,COUNT($D:$D)-1,1))</f>
-        <v/>
-      </c>
     </row>
     <row r="4">
       <c r="F4" t="inlineStr">
@@ -610,10 +582,6 @@
           <t>Mean Grade</t>
         </is>
       </c>
-      <c r="G4">
-        <f>IF(G6=0,0,AVERAGE(OFFSET($D$2,0,0,COUNT($D:$D)-1,1)))</f>
-        <v/>
-      </c>
     </row>
     <row r="5">
       <c r="F5" t="inlineStr">
@@ -621,20 +589,12 @@
           <t>Median Grade</t>
         </is>
       </c>
-      <c r="G5">
-        <f>IF(G6=0,0,MEDIAN(OFFSET($D$2,0,0,COUNT($D:$D)-1,1)))</f>
-        <v/>
-      </c>
     </row>
     <row r="6">
       <c r="F6" t="inlineStr">
         <is>
           <t>Number of Students</t>
         </is>
-      </c>
-      <c r="G6">
-        <f>COUNT(OFFSET($D$2,0,0,COUNT($D:$D)-1,1))</f>
-        <v/>
       </c>
     </row>
   </sheetData>
@@ -702,10 +662,6 @@
           <t>Highest Grade</t>
         </is>
       </c>
-      <c r="G2">
-        <f>MAX(OFFSET($D$2,0,0,COUNT($D:$D)-1,1))</f>
-        <v/>
-      </c>
     </row>
     <row r="3">
       <c r="F3" t="inlineStr">
@@ -713,10 +669,6 @@
           <t>Lowest Grade</t>
         </is>
       </c>
-      <c r="G3">
-        <f>MIN(OFFSET($D$2,0,0,COUNT($D:$D)-1,1))</f>
-        <v/>
-      </c>
     </row>
     <row r="4">
       <c r="F4" t="inlineStr">
@@ -724,10 +676,6 @@
           <t>Mean Grade</t>
         </is>
       </c>
-      <c r="G4">
-        <f>IF(G6=0,0,AVERAGE(OFFSET($D$2,0,0,COUNT($D:$D)-1,1)))</f>
-        <v/>
-      </c>
     </row>
     <row r="5">
       <c r="F5" t="inlineStr">
@@ -735,20 +683,12 @@
           <t>Median Grade</t>
         </is>
       </c>
-      <c r="G5">
-        <f>IF(G6=0,0,MEDIAN(OFFSET($D$2,0,0,COUNT($D:$D)-1,1)))</f>
-        <v/>
-      </c>
     </row>
     <row r="6">
       <c r="F6" t="inlineStr">
         <is>
           <t>Number of Students</t>
         </is>
-      </c>
-      <c r="G6">
-        <f>COUNT(OFFSET($D$2,0,0,COUNT($D:$D)-1,1))</f>
-        <v/>
       </c>
     </row>
   </sheetData>
@@ -816,10 +756,6 @@
           <t>Highest Grade</t>
         </is>
       </c>
-      <c r="G2">
-        <f>MAX(OFFSET($D$2,0,0,COUNT($D:$D)-1,1))</f>
-        <v/>
-      </c>
     </row>
     <row r="3">
       <c r="F3" t="inlineStr">
@@ -827,10 +763,6 @@
           <t>Lowest Grade</t>
         </is>
       </c>
-      <c r="G3">
-        <f>MIN(OFFSET($D$2,0,0,COUNT($D:$D)-1,1))</f>
-        <v/>
-      </c>
     </row>
     <row r="4">
       <c r="F4" t="inlineStr">
@@ -838,10 +770,6 @@
           <t>Mean Grade</t>
         </is>
       </c>
-      <c r="G4">
-        <f>IF(G6=0,0,AVERAGE(OFFSET($D$2,0,0,COUNT($D:$D)-1,1)))</f>
-        <v/>
-      </c>
     </row>
     <row r="5">
       <c r="F5" t="inlineStr">
@@ -849,20 +777,12 @@
           <t>Median Grade</t>
         </is>
       </c>
-      <c r="G5">
-        <f>IF(G6=0,0,MEDIAN(OFFSET($D$2,0,0,COUNT($D:$D)-1,1)))</f>
-        <v/>
-      </c>
     </row>
     <row r="6">
       <c r="F6" t="inlineStr">
         <is>
           <t>Number of Students</t>
         </is>
-      </c>
-      <c r="G6">
-        <f>COUNT(OFFSET($D$2,0,0,COUNT($D:$D)-1,1))</f>
-        <v/>
       </c>
     </row>
   </sheetData>
